--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationImportSchema_cn.xlsx
@@ -67,7 +67,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>

--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationImportSchema_cn.xlsx
@@ -1,75 +1,785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdutka\Desktop\Import templates - 副本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9932FC-57DD-4006-BB09-C8C5F07632C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Operations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>qcadoo MES</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2408F59-EC91-4F55-A867-871D9503BA79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>工序编号必须唯一</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AB77FF61-4FBD-466E-9B2A-6BEA32C5DA83}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{973083B5-827A-4C2F-B62D-5C671E705152}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入工序输出产品编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B64201A7-BF1F-4583-987E-0B9FB3DD45EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EC4C7BC0-C5B8-45F9-B283-3DCE4D9CCAD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的部门编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C7C53E21-3715-4706-AF1E-AB1239C61C6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的工作站编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>要为工序分配工作站，必须填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>部门</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FFBD275B-32B6-4E7B-B03E-911C22B4CAA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入生产准备时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位为秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3D62E060-520C-46D4-AF88-2992B7D5AC86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入周期生产时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位为秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{457153E0-28F2-4043-B201-7B49D096DB85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入生产一周的数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果值为空</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我们将自动默认生产量为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{53ED4C62-7382-4A7C-BABE-9DFD0751D565}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入附加时间以秒表示</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
   <si>
     <t>工序编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工序名称</t>
-  </si>
-  <si>
-    <t>产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工作站</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期生产产量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生产准备时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周期生产时间</t>
-  </si>
-  <si>
-    <t>周期生产产量</t>
-  </si>
-  <si>
-    <t>附加时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,81 +804,453 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{0F83A6A4-8047-41CD-93EA-6B4D61DE8F44}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{930D147D-AE6C-4D47-AB9D-EE3568DB8C0B}" name="operationImportSchema_en" displayName="operationImportSchema_en" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J2" xr:uid="{930D147D-AE6C-4D47-AB9D-EE3568DB8C0B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DFF47B98-AE53-4DD7-BA6D-21F9DEC71D2B}" name="工序编号" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B49FB811-60ED-4603-A583-0C58B91318E4}" name="工序名称" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9E4CEB83-7DD4-464C-8842-96E2A75ACBB4}" name="产品" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8AAF6BFA-05E0-4949-A23B-5552DA792A6A}" name="描述" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{93D27CF7-4D4C-4206-8F4F-E5B3D3D6CF6C}" name="部门" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{CC0AD23A-3198-48A9-A163-693061D72AFB}" name="工作站" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E80CE4DE-C2C4-44CE-9156-C888C731499E}" name="生产准备时间" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B850D41C-662D-4F44-A85F-346FFAE08613}" name="周期生产时间" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{1E677F12-39F1-4492-89E5-F420339EF356}" name="周期生产产量" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{C370D9D4-CD79-4027-8F2F-2C0898E0FC1C}" name="附加时间" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -370,7 +1452,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -389,7 +1471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -419,7 +1501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -445,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -471,7 +1553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -497,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -523,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,9 +1722,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -659,7 +1747,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -678,7 +1766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +1792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +1818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +1844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +1870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,9 +2013,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -941,7 +2035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -960,7 +2054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +2084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +2110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +2136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +2162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +2188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +2214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +2240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +2266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +2292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,75 +2305,90 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="10" width="16.8516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="16.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1291,7 +2400,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1303,7 +2412,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1315,7 +2424,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1327,7 +2436,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1339,7 +2448,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1351,7 +2460,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1363,7 +2472,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1375,7 +2484,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1387,7 +2496,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" ht="15.95" customHeight="1">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1399,7 +2508,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1411,7 +2520,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1423,7 +2532,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1435,7 +2544,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1447,7 +2556,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1">
+    <row r="17" spans="1:10" ht="15.95" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1459,7 +2568,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1">
+    <row r="18" spans="1:10" ht="15.95" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1471,7 +2580,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
+    <row r="19" spans="1:10" ht="15.95" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1483,7 +2592,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
+    <row r="20" spans="1:10" ht="15.95" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1495,7 +2604,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
+    <row r="21" spans="1:10" ht="15.95" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1507,7 +2616,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1">
+    <row r="22" spans="1:10" ht="15.95" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1519,7 +2628,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" ht="15.95" customHeight="1">
+    <row r="23" spans="1:10" ht="15.95" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1531,7 +2640,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" ht="15.95" customHeight="1">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1543,7 +2652,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" ht="15.95" customHeight="1">
+    <row r="25" spans="1:10" ht="15.95" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1555,7 +2664,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" ht="15.95" customHeight="1">
+    <row r="26" spans="1:10" ht="15.95" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1567,7 +2676,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" ht="15.95" customHeight="1">
+    <row r="27" spans="1:10" ht="15.95" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1579,7 +2688,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" ht="15.95" customHeight="1">
+    <row r="28" spans="1:10" ht="15.95" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1591,7 +2700,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" ht="15.95" customHeight="1">
+    <row r="29" spans="1:10" ht="15.95" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1603,7 +2712,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" ht="15.95" customHeight="1">
+    <row r="30" spans="1:10" ht="15.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1615,7 +2724,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" ht="15.95" customHeight="1">
+    <row r="31" spans="1:10" ht="15.95" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1627,7 +2736,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" ht="15.95" customHeight="1">
+    <row r="32" spans="1:10" ht="15.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1639,7 +2748,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" ht="15.95" customHeight="1">
+    <row r="33" spans="1:10" ht="15.95" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1651,7 +2760,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" ht="15.95" customHeight="1">
+    <row r="34" spans="1:10" ht="15.95" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1663,7 +2772,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" ht="15.95" customHeight="1">
+    <row r="35" spans="1:10" ht="15.95" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1675,7 +2784,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" ht="15.95" customHeight="1">
+    <row r="36" spans="1:10" ht="15.95" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1687,7 +2796,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" ht="15.95" customHeight="1">
+    <row r="37" spans="1:10" ht="15.95" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1699,7 +2808,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" ht="15.95" customHeight="1">
+    <row r="38" spans="1:10" ht="15.95" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1711,7 +2820,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" ht="15.95" customHeight="1">
+    <row r="39" spans="1:10" ht="15.95" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1723,7 +2832,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" ht="15.95" customHeight="1">
+    <row r="40" spans="1:10" ht="15.95" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1735,7 +2844,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" ht="15.95" customHeight="1">
+    <row r="41" spans="1:10" ht="15.95" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1747,7 +2856,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" ht="15.95" customHeight="1">
+    <row r="42" spans="1:10" ht="15.95" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1759,7 +2868,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" ht="15.95" customHeight="1">
+    <row r="43" spans="1:10" ht="15.95" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1771,7 +2880,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" ht="15.95" customHeight="1">
+    <row r="44" spans="1:10" ht="15.95" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1783,7 +2892,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" ht="15.95" customHeight="1">
+    <row r="45" spans="1:10" ht="15.95" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1795,7 +2904,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" ht="15.95" customHeight="1">
+    <row r="46" spans="1:10" ht="15.95" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1807,7 +2916,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" ht="15.95" customHeight="1">
+    <row r="47" spans="1:10" ht="15.95" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1819,7 +2928,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" ht="15.95" customHeight="1">
+    <row r="48" spans="1:10" ht="15.95" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1831,7 +2940,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" ht="15.95" customHeight="1">
+    <row r="49" spans="1:10" ht="15.95" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1843,7 +2952,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" ht="15.95" customHeight="1">
+    <row r="50" spans="1:10" ht="15.95" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1855,7 +2964,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" ht="15.95" customHeight="1">
+    <row r="51" spans="1:10" ht="15.95" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1867,7 +2976,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" ht="15.95" customHeight="1">
+    <row r="52" spans="1:10" ht="15.95" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1879,7 +2988,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" ht="15.95" customHeight="1">
+    <row r="53" spans="1:10" ht="15.95" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1891,7 +3000,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" ht="15.95" customHeight="1">
+    <row r="54" spans="1:10" ht="15.95" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1903,7 +3012,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" ht="15.95" customHeight="1">
+    <row r="55" spans="1:10" ht="15.95" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1915,7 +3024,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" ht="15.95" customHeight="1">
+    <row r="56" spans="1:10" ht="15.95" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1927,7 +3036,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" ht="15.95" customHeight="1">
+    <row r="57" spans="1:10" ht="15.95" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1939,7 +3048,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" ht="15.95" customHeight="1">
+    <row r="58" spans="1:10" ht="15.95" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1951,7 +3060,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" ht="15.95" customHeight="1">
+    <row r="59" spans="1:10" ht="15.95" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1963,7 +3072,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" ht="15.95" customHeight="1">
+    <row r="60" spans="1:10" ht="15.95" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1975,35 +3084,16 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" ht="15.95" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" ht="15.95" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>